--- a/Tables/PERMANOVA_PCO_biomass_fish_bioreg.xlsx
+++ b/Tables/PERMANOVA_PCO_biomass_fish_bioreg.xlsx
@@ -124,19 +124,19 @@
         <v>1.0</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7109755985063081</v>
+        <v>0.7404891432017738</v>
       </c>
       <c r="D2" t="n">
-        <v>0.7109755985063081</v>
+        <v>0.7404891432017738</v>
       </c>
       <c r="E2" t="n">
-        <v>3.822039308994734</v>
+        <v>3.6135431657076023</v>
       </c>
       <c r="F2" t="n">
-        <v>0.02058099900886522</v>
+        <v>0.019710524742908027</v>
       </c>
       <c r="G2" t="n">
-        <v>8.0E-4</v>
+        <v>0.0014</v>
       </c>
     </row>
     <row r="3">
@@ -147,16 +147,16 @@
         <v>3.0</v>
       </c>
       <c r="C3" t="n">
-        <v>6.5465372707131095</v>
+        <v>6.836531002670082</v>
       </c>
       <c r="D3" t="n">
-        <v>2.182179090237703</v>
+        <v>2.278843667556694</v>
       </c>
       <c r="E3" t="n">
-        <v>11.730886797911488</v>
+        <v>11.12062214040009</v>
       </c>
       <c r="F3" t="n">
-        <v>0.18950619031526483</v>
+        <v>0.18197648773233718</v>
       </c>
       <c r="G3" t="n">
         <v>1.0E-4</v>
@@ -170,19 +170,19 @@
         <v>3.0</v>
       </c>
       <c r="C4" t="n">
-        <v>1.24493510977896</v>
+        <v>1.3023176368950224</v>
       </c>
       <c r="D4" t="n">
-        <v>0.41497836992632003</v>
+        <v>0.43410587896500746</v>
       </c>
       <c r="E4" t="n">
-        <v>2.230827113579034</v>
+        <v>2.118410980807661</v>
       </c>
       <c r="F4" t="n">
-        <v>0.036037816648407744</v>
+        <v>0.03466541574688594</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0016</v>
+        <v>0.0031</v>
       </c>
     </row>
     <row r="5">
@@ -193,16 +193,16 @@
         <v>140.0</v>
       </c>
       <c r="C5" t="n">
-        <v>26.042794368083847</v>
+        <v>28.688872747407192</v>
       </c>
       <c r="D5" t="n">
-        <v>0.18601995977202748</v>
+        <v>0.20492051962433708</v>
       </c>
       <c r="E5" t="e">
         <v>#N/A</v>
       </c>
       <c r="F5" t="n">
-        <v>0.7538749940274623</v>
+        <v>0.7636475717778689</v>
       </c>
       <c r="G5" t="e">
         <v>#N/A</v>
@@ -216,7 +216,7 @@
         <v>147.0</v>
       </c>
       <c r="C6" t="n">
-        <v>34.54524234708222</v>
+        <v>37.56821053017407</v>
       </c>
       <c r="D6" t="e">
         <v>#N/A</v>

--- a/Tables/PERMANOVA_PCO_biomass_fish_bioreg.xlsx
+++ b/Tables/PERMANOVA_PCO_biomass_fish_bioreg.xlsx
@@ -386,19 +386,19 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>0.746895083026903</v>
+        <v>0.663177523997797</v>
       </c>
       <c r="C2" t="n">
-        <v>0.746895083026903</v>
+        <v>0.663177523997797</v>
       </c>
       <c r="D2" t="n">
-        <v>3.64069842637034</v>
+        <v>4.2919259948383</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0198625750994651</v>
+        <v>0.0227109217402772</v>
       </c>
       <c r="F2" t="n">
-        <v>0.002</v>
+        <v>0.0003</v>
       </c>
     </row>
     <row r="3">
@@ -406,16 +406,16 @@
         <v>3</v>
       </c>
       <c r="B3" t="n">
-        <v>6.83448643823726</v>
+        <v>5.79639801105541</v>
       </c>
       <c r="C3" t="n">
-        <v>2.27816214607909</v>
+        <v>1.9321326703518</v>
       </c>
       <c r="D3" t="n">
-        <v>11.1047743233675</v>
+        <v>12.5042995778409</v>
       </c>
       <c r="E3" t="n">
-        <v>0.181753104593505</v>
+        <v>0.198501210974417</v>
       </c>
       <c r="F3" t="n">
         <v>0.0001</v>
@@ -426,19 +426,19 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>1.30052991393528</v>
+        <v>1.10879878102872</v>
       </c>
       <c r="C4" t="n">
-        <v>0.433509971311759</v>
+        <v>0.369599593676241</v>
       </c>
       <c r="D4" t="n">
-        <v>2.11312017743424</v>
+        <v>2.39195999016698</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0345856783257332</v>
+        <v>0.0379714954600026</v>
       </c>
       <c r="F4" t="n">
-        <v>0.0034</v>
+        <v>0.0014</v>
       </c>
     </row>
     <row r="5">
@@ -446,14 +446,14 @@
         <v>140</v>
       </c>
       <c r="B5" t="n">
-        <v>28.7212230670846</v>
+        <v>21.6324450774202</v>
       </c>
       <c r="C5" t="n">
-        <v>0.205151593336319</v>
+        <v>0.154517464838716</v>
       </c>
       <c r="D5"/>
       <c r="E5" t="n">
-        <v>0.763798641981297</v>
+        <v>0.740816371825303</v>
       </c>
       <c r="F5"/>
     </row>
@@ -462,7 +462,7 @@
         <v>147</v>
       </c>
       <c r="B6" t="n">
-        <v>37.6031345022841</v>
+        <v>29.2008193935022</v>
       </c>
       <c r="C6"/>
       <c r="D6"/>
